--- a/lab2/report/tddc78-lab2.xlsx
+++ b/lab2/report/tddc78-lab2.xlsx
@@ -234,10 +234,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.000703934</c:v>
                 </c:pt>
@@ -246,6 +246,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.00238057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01096705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -260,11 +263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2062086520"/>
-        <c:axId val="2062082904"/>
+        <c:axId val="2060692552"/>
+        <c:axId val="2083456264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2062086520"/>
+        <c:axId val="2060692552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,12 +277,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062082904"/>
+        <c:crossAx val="2083456264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2062082904"/>
+        <c:axId val="2083456264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -290,7 +293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062086520"/>
+        <c:crossAx val="2060692552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -394,11 +397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2062148568"/>
-        <c:axId val="2062151336"/>
+        <c:axId val="2082505688"/>
+        <c:axId val="2082508712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2062148568"/>
+        <c:axId val="2082505688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,12 +411,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062151336"/>
+        <c:crossAx val="2082508712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2062151336"/>
+        <c:axId val="2082508712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062148568"/>
+        <c:crossAx val="2082505688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -513,11 +516,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2062173992"/>
-        <c:axId val="2062176824"/>
+        <c:axId val="2082531032"/>
+        <c:axId val="2082534056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2062173992"/>
+        <c:axId val="2082531032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,12 +530,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062176824"/>
+        <c:crossAx val="2082534056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2062176824"/>
+        <c:axId val="2082534056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,7 +546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062173992"/>
+        <c:crossAx val="2082531032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -623,11 +626,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2062199400"/>
-        <c:axId val="2062202168"/>
+        <c:axId val="2061404248"/>
+        <c:axId val="2083338920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2062199400"/>
+        <c:axId val="2061404248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,12 +640,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062202168"/>
+        <c:crossAx val="2083338920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2062202168"/>
+        <c:axId val="2083338920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,7 +656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062199400"/>
+        <c:crossAx val="2061404248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -774,11 +777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073665640"/>
-        <c:axId val="2073489720"/>
+        <c:axId val="2085170552"/>
+        <c:axId val="2085173688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073665640"/>
+        <c:axId val="2085170552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,12 +790,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073489720"/>
+        <c:crossAx val="2085173688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073489720"/>
+        <c:axId val="2085173688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073665640"/>
+        <c:crossAx val="2085170552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -863,6 +866,9 @@
                 <c:pt idx="2">
                   <c:v>0.000736822</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0007489735</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -876,11 +882,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073722440"/>
-        <c:axId val="2073412824"/>
+        <c:axId val="2083366456"/>
+        <c:axId val="2083369416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073722440"/>
+        <c:axId val="2083366456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,12 +895,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073412824"/>
+        <c:crossAx val="2083369416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073412824"/>
+        <c:axId val="2083369416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -906,7 +912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073722440"/>
+        <c:crossAx val="2083366456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1433,7 +1439,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1473,7 +1479,7 @@
         <v>7.3274699999999996E-4</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E7" si="0">AVERAGE(C2:D2)</f>
+        <f t="shared" ref="E2:E5" si="0">AVERAGE(C2:D2)</f>
         <v>7.0393400000000003E-4</v>
       </c>
     </row>
@@ -1523,9 +1529,15 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="E5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C5">
+        <v>1.0833499999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.11006E-2</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(C5:D5)</f>
+        <v>1.0967049999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1714,7 +1726,7 @@
         <v>7.5454000000000005E-4</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="5">AVERAGE(C20:D20)</f>
+        <f t="shared" ref="E20:E21" si="5">AVERAGE(C20:D20)</f>
         <v>7.3682200000000004E-4</v>
       </c>
     </row>
@@ -1725,6 +1737,16 @@
       </c>
       <c r="B21">
         <v>38</v>
+      </c>
+      <c r="C21">
+        <v>7.4463899999999996E-4</v>
+      </c>
+      <c r="D21">
+        <v>7.5330799999999995E-4</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>7.4897349999999995E-4</v>
       </c>
     </row>
     <row r="23" spans="1:7">

--- a/lab2/report/tddc78-lab2.xlsx
+++ b/lab2/report/tddc78-lab2.xlsx
@@ -100,8 +100,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -144,7 +150,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -163,6 +169,9 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -181,6 +190,9 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -263,11 +275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2060692552"/>
-        <c:axId val="2083456264"/>
+        <c:axId val="2135931848"/>
+        <c:axId val="2118313592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2060692552"/>
+        <c:axId val="2135931848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -277,12 +289,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083456264"/>
+        <c:crossAx val="2118313592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083456264"/>
+        <c:axId val="2118313592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -293,7 +305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2060692552"/>
+        <c:crossAx val="2135931848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -397,11 +409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082505688"/>
-        <c:axId val="2082508712"/>
+        <c:axId val="2135335176"/>
+        <c:axId val="2135332376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082505688"/>
+        <c:axId val="2135335176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,12 +423,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082508712"/>
+        <c:crossAx val="2135332376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082508712"/>
+        <c:axId val="2135332376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082505688"/>
+        <c:crossAx val="2135335176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -503,6 +515,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.15586</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.13357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9175545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6135245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4045855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.410161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4700565</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -516,11 +549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2082531032"/>
-        <c:axId val="2082534056"/>
+        <c:axId val="2135309768"/>
+        <c:axId val="2135306968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2082531032"/>
+        <c:axId val="2135309768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,12 +563,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082534056"/>
+        <c:crossAx val="2135306968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082534056"/>
+        <c:axId val="2135306968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082531032"/>
+        <c:crossAx val="2135309768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -613,6 +646,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.126722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.264673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4635235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.15586</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -626,11 +671,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2061404248"/>
-        <c:axId val="2083338920"/>
+        <c:axId val="2135284312"/>
+        <c:axId val="2135281544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2061404248"/>
+        <c:axId val="2135284312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,12 +685,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083338920"/>
+        <c:crossAx val="2135281544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083338920"/>
+        <c:axId val="2135281544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061404248"/>
+        <c:crossAx val="2135284312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -707,6 +752,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.126722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.147241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2543585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4272805</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -726,6 +783,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.126722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.147241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2543585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4272805</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -745,6 +814,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.126722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.147241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2543585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4272805</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -764,6 +845,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.126722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.147241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2543585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4272805</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -777,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085170552"/>
-        <c:axId val="2085173688"/>
+        <c:axId val="2135248760"/>
+        <c:axId val="2135245624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085170552"/>
+        <c:axId val="2135248760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,12 +883,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085173688"/>
+        <c:crossAx val="2135245624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085173688"/>
+        <c:axId val="2135245624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085170552"/>
+        <c:crossAx val="2135248760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -882,11 +975,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083366456"/>
-        <c:axId val="2083369416"/>
+        <c:axId val="2135225128"/>
+        <c:axId val="2135222360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083366456"/>
+        <c:axId val="2135225128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,12 +988,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083369416"/>
+        <c:crossAx val="2135222360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083369416"/>
+        <c:axId val="2135222360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -912,7 +1005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083366456"/>
+        <c:crossAx val="2135225128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1053,16 +1146,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1438,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1479,7 +1572,7 @@
         <v>7.3274699999999996E-4</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E5" si="0">AVERAGE(C2:D2)</f>
+        <f t="shared" ref="E2:E4" si="0">AVERAGE(C2:D2)</f>
         <v>7.0393400000000003E-4</v>
       </c>
     </row>
@@ -1780,59 +1873,129 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>4.2187999999999999</v>
+      </c>
+      <c r="D25">
+        <v>4.2219100000000003</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E32" si="6">AVERAGE(C25:D25)</f>
+        <v>4.2203549999999996</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <f t="shared" ref="A26:A31" si="6">3000*3000</f>
+        <f t="shared" ref="A26:A31" si="7">3000*3000</f>
         <v>9000000</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
+      <c r="C26">
+        <v>2.1597900000000001</v>
+      </c>
+      <c r="D26">
+        <v>2.1519300000000001</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>2.1558600000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9000000</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
+      <c r="C27">
+        <v>1.13462</v>
+      </c>
+      <c r="D27">
+        <v>1.13252</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>1.13357</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9000000</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
+      <c r="C28">
+        <v>0.91737800000000003</v>
+      </c>
+      <c r="D28">
+        <v>0.91773099999999996</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>0.91755450000000005</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9000000</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
+      <c r="C29">
+        <v>0.60800699999999996</v>
+      </c>
+      <c r="D29">
+        <v>0.61904199999999998</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>0.61352450000000003</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9000000</v>
       </c>
       <c r="B30">
         <v>16</v>
       </c>
+      <c r="C30">
+        <v>0.34619299999999997</v>
+      </c>
+      <c r="D30">
+        <v>0.462978</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>0.40458549999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9000000</v>
       </c>
       <c r="B31">
         <v>32</v>
+      </c>
+      <c r="C31">
+        <v>0.40277400000000002</v>
+      </c>
+      <c r="D31">
+        <v>0.41754799999999997</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>0.410161</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1842,8 +2005,18 @@
       <c r="B32">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C32">
+        <v>0.47337800000000002</v>
+      </c>
+      <c r="D32">
+        <v>0.46673500000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>0.47005649999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <f>763*676</f>
         <v>515788</v>
@@ -1851,8 +2024,18 @@
       <c r="B34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>0.12733900000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.12610499999999999</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E36" si="8">AVERAGE(C34:D34)</f>
+        <v>0.126722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <f>1024*1024</f>
         <v>1048576</v>
@@ -1860,8 +2043,18 @@
       <c r="B35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>0.26378000000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.26556600000000002</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="8"/>
+        <v>0.26467300000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <f>1600*1200</f>
         <v>1920000</v>
@@ -1869,8 +2062,18 @@
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>0.46408300000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.46296399999999999</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="8"/>
+        <v>0.46352349999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <f>3000*3000</f>
         <v>9000000</v>
@@ -1878,8 +2081,18 @@
       <c r="B37">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C37">
+        <v>2.1597900000000001</v>
+      </c>
+      <c r="D37">
+        <v>2.1519300000000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:E43" si="9">AVERAGE(C37:D37)</f>
+        <v>2.1558600000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <f>763*676</f>
         <v>515788</v>
@@ -1887,8 +2100,18 @@
       <c r="B40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>0.12733900000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.12610499999999999</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="9"/>
+        <v>0.126722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <f>1024*1024</f>
         <v>1048576</v>
@@ -1896,8 +2119,18 @@
       <c r="B41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>0.14707500000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.14740700000000001</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="9"/>
+        <v>0.14724100000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <f>1600*1200</f>
         <v>1920000</v>
@@ -1905,14 +2138,34 @@
       <c r="B42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0.25500699999999998</v>
+      </c>
+      <c r="D42">
+        <v>0.25370999999999999</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="9"/>
+        <v>0.25435849999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <f>3000*3000</f>
         <v>9000000</v>
       </c>
       <c r="B43">
         <v>38</v>
+      </c>
+      <c r="C43">
+        <v>0.41379300000000002</v>
+      </c>
+      <c r="D43">
+        <v>0.44076799999999999</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="9"/>
+        <v>0.42728050000000001</v>
       </c>
     </row>
   </sheetData>

--- a/lab2/report/tddc78-lab2.xlsx
+++ b/lab2/report/tddc78-lab2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22140" windowHeight="17480" tabRatio="500"/>
@@ -151,48 +151,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -203,7 +203,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -275,11 +275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135931848"/>
-        <c:axId val="2118313592"/>
+        <c:axId val="682096552"/>
+        <c:axId val="631131016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135931848"/>
+        <c:axId val="682096552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -289,12 +289,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118313592"/>
+        <c:crossAx val="631131016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118313592"/>
+        <c:axId val="631131016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -305,7 +305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135931848"/>
+        <c:crossAx val="682096552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -325,7 +325,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -409,11 +409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135335176"/>
-        <c:axId val="2135332376"/>
+        <c:axId val="681770856"/>
+        <c:axId val="681773880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135335176"/>
+        <c:axId val="681770856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,12 +423,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135332376"/>
+        <c:crossAx val="681773880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135332376"/>
+        <c:axId val="681773880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,7 +439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135335176"/>
+        <c:crossAx val="681770856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -459,7 +459,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -549,11 +549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135309768"/>
-        <c:axId val="2135306968"/>
+        <c:axId val="681808808"/>
+        <c:axId val="682249384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135309768"/>
+        <c:axId val="681808808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,12 +563,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135306968"/>
+        <c:crossAx val="682249384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135306968"/>
+        <c:axId val="682249384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -579,7 +579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135309768"/>
+        <c:crossAx val="681808808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -599,7 +599,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -671,11 +671,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135284312"/>
-        <c:axId val="2135281544"/>
+        <c:axId val="681900568"/>
+        <c:axId val="590625400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135284312"/>
+        <c:axId val="681900568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,12 +685,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135281544"/>
+        <c:crossAx val="590625400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135281544"/>
+        <c:axId val="590625400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135284312"/>
+        <c:crossAx val="681900568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -721,7 +721,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -870,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135248760"/>
-        <c:axId val="2135245624"/>
+        <c:axId val="661711464"/>
+        <c:axId val="629566776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135248760"/>
+        <c:axId val="661711464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,12 +883,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135245624"/>
+        <c:crossAx val="629566776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135245624"/>
+        <c:axId val="629566776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,7 +899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135248760"/>
+        <c:crossAx val="661711464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -919,7 +919,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="sv-SE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -975,11 +975,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2135225128"/>
-        <c:axId val="2135222360"/>
+        <c:axId val="616241464"/>
+        <c:axId val="662035624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2135225128"/>
+        <c:axId val="616241464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,12 +988,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135222360"/>
+        <c:crossAx val="662035624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2135222360"/>
+        <c:axId val="662035624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1005,7 +1005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135225128"/>
+        <c:crossAx val="616241464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1057,15 +1057,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1531,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
